--- a/FINAL450/FINAL450.xlsx
+++ b/FINAL450/FINAL450.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Documents\Dropbox\C\Codechef\FINAL450\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Documents\Dropbox\Github\Competitive-Programming\FINAL450\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6E988C7-162C-42AA-B892-196FB675E667}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD1BFF82-EE97-4E28-A717-99321375094D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="128" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1857,8 +1857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A455" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B479" sqref="B479"/>
+    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B107" sqref="B107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2905,7 +2905,7 @@
         <v>98</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="21">
@@ -2916,7 +2916,7 @@
         <v>99</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="21">
@@ -2927,7 +2927,7 @@
         <v>100</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="21">
@@ -2938,14 +2938,14 @@
         <v>101</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" ht="21">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="19.8">
       <c r="A105" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="B105" s="6" t="s">
+      <c r="B105" s="10" t="s">
         <v>102</v>
       </c>
       <c r="C105" s="4" t="s">

--- a/FINAL450/FINAL450.xlsx
+++ b/FINAL450/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Documents\Dropbox\Github\Competitive-Programming\FINAL450\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD1BFF82-EE97-4E28-A717-99321375094D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E198912C-EDCD-4641-84FF-10BAFFFCB843}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="128" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1857,8 +1857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B107" sqref="B107"/>
+    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C109" sqref="C109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2949,7 +2949,7 @@
         <v>102</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="21">

--- a/FINAL450/FINAL450.xlsx
+++ b/FINAL450/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Documents\Dropbox\Github\Competitive-Programming\FINAL450\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E198912C-EDCD-4641-84FF-10BAFFFCB843}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7154469E-11ED-4449-BE60-8EF9AC524E51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="128" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="468">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1426,6 +1426,9 @@
   </si>
   <si>
     <t>NO</t>
+  </si>
+  <si>
+    <t>YES - REVAL</t>
   </si>
 </sst>
 </file>
@@ -1858,7 +1861,7 @@
   <dimension ref="A1:C481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A100" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C109" sqref="C109"/>
+      <selection activeCell="C103" sqref="C103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2927,7 +2930,7 @@
         <v>100</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="21">

--- a/FINAL450/FINAL450.xlsx
+++ b/FINAL450/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Documents\Dropbox\Github\Competitive-Programming\FINAL450\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7154469E-11ED-4449-BE60-8EF9AC524E51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1D7406B-2B21-4DF4-BD22-48EA63C69E2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="128" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="469">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1429,6 +1429,9 @@
   </si>
   <si>
     <t>YES - REVAL</t>
+  </si>
+  <si>
+    <t>Reval</t>
   </si>
 </sst>
 </file>
@@ -1860,8 +1863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C103" sqref="C103"/>
+    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -2430,7 +2433,7 @@
         <v>54</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="21">
@@ -2441,7 +2444,7 @@
         <v>55</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="21">
@@ -2452,7 +2455,7 @@
         <v>56</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="21">
@@ -2474,18 +2477,18 @@
         <v>58</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="21">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="19.8">
       <c r="A61" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B61" s="6" t="s">
+      <c r="B61" s="10" t="s">
         <v>59</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>4</v>
+        <v>468</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="21">
